--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-梁肖雄.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-梁肖雄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -144,24 +144,78 @@
     <t>SaaS</t>
   </si>
   <si>
+    <t>上海麻辣外婆</t>
+  </si>
+  <si>
+    <t>麻辣外婆</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>梁肖雄</t>
+  </si>
+  <si>
+    <t>黄国梅</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>上海.百令餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>璞素</t>
+  </si>
+  <si>
+    <t>璞素自助餐厅</t>
+  </si>
+  <si>
+    <t>叶士豪</t>
+  </si>
+  <si>
+    <t>店长</t>
+  </si>
+  <si>
+    <t>上海芯彤商贸有限公司</t>
+  </si>
+  <si>
+    <t>花功夫永生花</t>
+  </si>
+  <si>
+    <t>章雯倩</t>
+  </si>
+  <si>
+    <t>茶喵喵奶茶铺</t>
+  </si>
+  <si>
+    <t>茶喵喵泾县店</t>
+  </si>
+  <si>
+    <t>汪强</t>
+  </si>
+  <si>
+    <t>上海瑞俊餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>谁家小厨(徐汇万科店)</t>
+  </si>
+  <si>
+    <t>郑瑞芳</t>
+  </si>
+  <si>
     <t>上海果林餐饮有限公司</t>
   </si>
   <si>
     <t>老成都生态火锅</t>
   </si>
   <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>梁肖雄</t>
-  </si>
-  <si>
     <t>王利昌</t>
   </si>
   <si>
-    <t>老板</t>
-  </si>
-  <si>
     <t>旧</t>
   </si>
   <si>
@@ -177,9 +231,6 @@
     <t>沈惠美</t>
   </si>
   <si>
-    <t>店长</t>
-  </si>
-  <si>
     <t>上海市闵行区小巴扎餐厅</t>
   </si>
   <si>
@@ -189,6 +240,24 @@
     <t>彭莉</t>
   </si>
   <si>
+    <t>上海洆饪管理有限公司</t>
+  </si>
+  <si>
+    <t>瓦谷王</t>
+  </si>
+  <si>
+    <t>钟谷英</t>
+  </si>
+  <si>
+    <t>武轩餐饮</t>
+  </si>
+  <si>
+    <t>武轩餐饮店南桥店</t>
+  </si>
+  <si>
+    <t>周银伍</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -211,6 +280,9 @@
   </si>
   <si>
     <t>去西域盛宴评估</t>
+  </si>
+  <si>
+    <t>去纳兰葱花更换机器</t>
   </si>
 </sst>
 </file>
@@ -218,11 +290,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -279,9 +351,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,12 +388,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -318,14 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -333,16 +409,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,9 +432,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,36 +463,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,25 +506,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,7 +570,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +618,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,55 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,25 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,17 +1048,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,17 +1072,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,11 +1100,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,25 +1117,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,10 +1151,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,146 +1163,146 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,6 +1314,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1280,6 +1358,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1784,440 +1865,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="22"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60" t="e">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="64">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="65">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="63" t="e">
+      <c r="N3" s="66" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="39">
+      <c r="G4" s="42"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="60" t="e">
+      <c r="J4" s="67"/>
+      <c r="K4" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="65">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="63" t="e">
+      <c r="N4" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="39">
+      <c r="G5" s="42"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="60" t="e">
+      <c r="J5" s="67"/>
+      <c r="K5" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="63" t="e">
+      <c r="N5" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38">
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="39">
+      <c r="G6" s="42"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="60" t="e">
+      <c r="J6" s="67"/>
+      <c r="K6" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="63" t="e">
+      <c r="N6" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="39">
+      <c r="G7" s="42"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="60" t="e">
+      <c r="J7" s="67"/>
+      <c r="K7" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="63" t="e">
+      <c r="N7" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38">
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="39">
+      <c r="G8" s="42"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="60" t="e">
+      <c r="J8" s="67"/>
+      <c r="K8" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="63" t="e">
+      <c r="N8" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="39">
+      <c r="G9" s="42"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="60" t="e">
+      <c r="J9" s="67"/>
+      <c r="K9" s="63" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="63" t="e">
+      <c r="N9" s="66" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43">
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44">
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66" t="e">
+      <c r="J10" s="68"/>
+      <c r="K10" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="69" t="e">
+      <c r="N10" s="72" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="52">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="52">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="52">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="70" t="e">
+      <c r="K11" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="71" t="e">
+      <c r="N11" s="74" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2235,13 +2316,13 @@
   <sheetPr/>
   <dimension ref="A1:O605"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" style="8" customWidth="1"/>
     <col min="2" max="3" width="10.6666666666667" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="6" width="13.8333333333333" style="4" customWidth="1"/>
@@ -2252,63 +2333,63 @@
     <col min="11" max="11" width="16.6666666666667" style="4" customWidth="1"/>
     <col min="12" max="14" width="13.8333333333333" style="4" customWidth="1"/>
     <col min="15" max="15" width="9" style="4"/>
-    <col min="16" max="16" width="9" style="7"/>
-    <col min="17" max="16384" width="9" style="8"/>
+    <col min="16" max="16" width="9" style="9"/>
+    <col min="17" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="11">
-        <v>44</v>
-      </c>
-      <c r="B2" s="12">
-        <v>43033</v>
+      <c r="A2" s="13">
+        <v>42</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43025</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>40</v>
@@ -2323,7 +2404,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="2">
-        <v>76101629</v>
+        <v>76100322</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>42</v>
@@ -2344,35 +2425,35 @@
         <v>46</v>
       </c>
       <c r="N2" s="2">
-        <v>15305247808</v>
+        <v>15026969717</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="11">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12">
-        <v>43033</v>
+      <c r="A3" s="13">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43025</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="13">
-        <v>76102133</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="15">
+        <v>76095261</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2391,18 +2472,18 @@
         <v>52</v>
       </c>
       <c r="N3" s="2">
-        <v>18621887267</v>
+        <v>15221805925</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="11">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12">
-        <v>43033</v>
+      <c r="A4" s="13">
+        <v>42</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43025</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>40</v>
@@ -2416,10 +2497,10 @@
       <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="15">
-        <v>76097602</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="17">
+        <v>76096885</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2435,1837 +2516,2125 @@
         <v>55</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
-        <v>15000511452</v>
+        <v>13817560713</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="D7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="11"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="13">
+        <v>42</v>
+      </c>
+      <c r="B5" s="14">
+        <v>43025</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="15">
+        <v>76096583</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="2">
+        <v>18375329998</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="13">
+        <v>42</v>
+      </c>
+      <c r="B6" s="14">
+        <v>43025</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>76095789</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2">
+        <v>13661603333</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="13">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43033</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="18">
+        <v>76101629</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="22">
+        <v>15305247808</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13">
+        <v>44</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43033</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4">
+        <v>76102133</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="4">
+        <v>18621887267</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="8">
+        <v>44</v>
+      </c>
+      <c r="B9" s="20">
+        <v>43033</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4">
+        <v>76097602</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="4">
+        <v>15000511452</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="13">
+        <v>45</v>
+      </c>
+      <c r="B10" s="20">
+        <v>43038</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4">
+        <v>76095807</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="4">
+        <v>13524528013</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="13">
+        <v>45</v>
+      </c>
+      <c r="B11" s="20">
+        <v>43038</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4">
+        <v>76100760</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4">
+        <v>15234889658</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="4">
+        <v>13795266669</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11"/>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11"/>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="11"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="11"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="11"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="11"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="11"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="11"/>
+      <c r="A46" s="13"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="11"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="11"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="11"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="11"/>
+      <c r="A50" s="13"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="11"/>
+      <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="11"/>
+      <c r="A52" s="13"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="11"/>
+      <c r="A53" s="13"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="11"/>
+      <c r="A54" s="13"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="11"/>
+      <c r="A55" s="13"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="11"/>
+      <c r="A56" s="13"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="11"/>
+      <c r="A57" s="13"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="11"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="11"/>
+      <c r="A59" s="13"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="11"/>
+      <c r="A60" s="13"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="11"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="11"/>
+      <c r="A62" s="13"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="11"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="11"/>
+      <c r="A64" s="13"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="11"/>
+      <c r="A65" s="13"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="11"/>
+      <c r="A66" s="13"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="11"/>
+      <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="11"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="11"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="11"/>
+      <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="11"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="11"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="11"/>
+      <c r="A73" s="13"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="11"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="11"/>
+      <c r="A75" s="13"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="11"/>
+      <c r="A76" s="13"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="11"/>
+      <c r="A77" s="13"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="11"/>
+      <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="11"/>
+      <c r="A79" s="13"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="11"/>
+      <c r="A80" s="13"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="11"/>
+      <c r="A81" s="13"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="11"/>
+      <c r="A82" s="13"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="11"/>
+      <c r="A83" s="13"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="11"/>
+      <c r="A84" s="13"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="11"/>
+      <c r="A85" s="13"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="11"/>
+      <c r="A86" s="13"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="11"/>
+      <c r="A87" s="13"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="11"/>
+      <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="11"/>
+      <c r="A89" s="13"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11"/>
+      <c r="A90" s="13"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="11"/>
+      <c r="A91" s="13"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="11"/>
+      <c r="A92" s="13"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="11"/>
+      <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="11"/>
+      <c r="A94" s="13"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="11"/>
+      <c r="A95" s="13"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="11"/>
+      <c r="A96" s="13"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="11"/>
+      <c r="A97" s="13"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="11"/>
+      <c r="A98" s="13"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="11"/>
+      <c r="A99" s="13"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="11"/>
+      <c r="A100" s="13"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="11"/>
+      <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="11"/>
+      <c r="A102" s="13"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="11"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="11"/>
+      <c r="A104" s="13"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="11"/>
+      <c r="A105" s="13"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="11"/>
+      <c r="A106" s="13"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="11"/>
+      <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="11"/>
+      <c r="A108" s="13"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="11"/>
+      <c r="A109" s="13"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="11"/>
+      <c r="A110" s="13"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="11"/>
+      <c r="A111" s="13"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="11"/>
+      <c r="A112" s="13"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="11"/>
+      <c r="A113" s="13"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="11"/>
+      <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="11"/>
+      <c r="A115" s="13"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="11"/>
+      <c r="A116" s="13"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="11"/>
+      <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="11"/>
+      <c r="A118" s="13"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="11"/>
+      <c r="A119" s="13"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="11"/>
+      <c r="A120" s="13"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="11"/>
+      <c r="A121" s="13"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="11"/>
+      <c r="A122" s="13"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="11"/>
+      <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="11"/>
+      <c r="A124" s="13"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="11"/>
+      <c r="A125" s="13"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="11"/>
+      <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="11"/>
+      <c r="A127" s="13"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="11"/>
+      <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="11"/>
+      <c r="A129" s="13"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="11"/>
+      <c r="A130" s="13"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="11"/>
+      <c r="A131" s="13"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="11"/>
+      <c r="A132" s="13"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="11"/>
+      <c r="A133" s="13"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="11"/>
+      <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="11"/>
+      <c r="A135" s="13"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="11"/>
+      <c r="A136" s="13"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="11"/>
+      <c r="A137" s="13"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="11"/>
+      <c r="A138" s="13"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="11"/>
+      <c r="A139" s="13"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="11"/>
+      <c r="A140" s="13"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="11"/>
+      <c r="A141" s="13"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="11"/>
+      <c r="A142" s="13"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="11"/>
+      <c r="A143" s="13"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="11"/>
+      <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="11"/>
+      <c r="A145" s="13"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="11"/>
+      <c r="A146" s="13"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="11"/>
+      <c r="A147" s="13"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="11"/>
+      <c r="A148" s="13"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="11"/>
+      <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="11"/>
+      <c r="A150" s="13"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="11"/>
+      <c r="A151" s="13"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="11"/>
+      <c r="A152" s="13"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="11"/>
+      <c r="A153" s="13"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="11"/>
+      <c r="A154" s="13"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="11"/>
+      <c r="A155" s="13"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="11"/>
+      <c r="A156" s="13"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="11"/>
+      <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="11"/>
+      <c r="A158" s="13"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="11"/>
+      <c r="A159" s="13"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="11"/>
+      <c r="A160" s="13"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="11"/>
+      <c r="A161" s="13"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="11"/>
+      <c r="A162" s="13"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="11"/>
+      <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="11"/>
+      <c r="A164" s="13"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="11"/>
+      <c r="A165" s="13"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="11"/>
+      <c r="A166" s="13"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="11"/>
+      <c r="A167" s="13"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="11"/>
+      <c r="A168" s="13"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="11"/>
+      <c r="A169" s="13"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="11"/>
+      <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="11"/>
+      <c r="A171" s="13"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="11"/>
+      <c r="A172" s="13"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="11"/>
+      <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="11"/>
+      <c r="A174" s="13"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="11"/>
+      <c r="A175" s="13"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="11"/>
+      <c r="A176" s="13"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="11"/>
+      <c r="A177" s="13"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="11"/>
+      <c r="A178" s="13"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="11"/>
+      <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="11"/>
+      <c r="A180" s="13"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="11"/>
+      <c r="A181" s="13"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="11"/>
+      <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="11"/>
+      <c r="A183" s="13"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="11"/>
+      <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="11"/>
+      <c r="A185" s="13"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="11"/>
+      <c r="A186" s="13"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="11"/>
+      <c r="A187" s="13"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="11"/>
+      <c r="A188" s="13"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="11"/>
+      <c r="A189" s="13"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="11"/>
+      <c r="A190" s="13"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="11"/>
+      <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="11"/>
+      <c r="A192" s="13"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="11"/>
+      <c r="A193" s="13"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="11"/>
+      <c r="A194" s="13"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="11"/>
+      <c r="A195" s="13"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="11"/>
+      <c r="A196" s="13"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="11"/>
+      <c r="A197" s="13"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="11"/>
+      <c r="A198" s="13"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="11"/>
+      <c r="A199" s="13"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="11"/>
+      <c r="A200" s="13"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="11"/>
+      <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="11"/>
+      <c r="A202" s="13"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="11"/>
+      <c r="A203" s="13"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="11"/>
+      <c r="A204" s="13"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="11"/>
+      <c r="A205" s="13"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="11"/>
+      <c r="A206" s="13"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="11"/>
+      <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="11"/>
+      <c r="A208" s="13"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="11"/>
+      <c r="A209" s="13"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="11"/>
+      <c r="A210" s="13"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="11"/>
+      <c r="A211" s="13"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="11"/>
+      <c r="A212" s="13"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="11"/>
+      <c r="A213" s="13"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="11"/>
+      <c r="A214" s="13"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="11"/>
+      <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="11"/>
+      <c r="A216" s="13"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="11"/>
+      <c r="A217" s="13"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="11"/>
+      <c r="A218" s="13"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="11"/>
+      <c r="A219" s="13"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="11"/>
+      <c r="A220" s="13"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="11"/>
+      <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="11"/>
+      <c r="A222" s="13"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="11"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="11"/>
+      <c r="A224" s="13"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="11"/>
+      <c r="A225" s="13"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="11"/>
+      <c r="A226" s="13"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="11"/>
+      <c r="A227" s="13"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="11"/>
+      <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="11"/>
+      <c r="A229" s="13"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="11"/>
+      <c r="A230" s="13"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="11"/>
+      <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="11"/>
+      <c r="A232" s="13"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="11"/>
+      <c r="A233" s="13"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="11"/>
+      <c r="A234" s="13"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="11"/>
+      <c r="A235" s="13"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="11"/>
+      <c r="A236" s="13"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="11"/>
+      <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="11"/>
+      <c r="A238" s="13"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="11"/>
+      <c r="A239" s="13"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="11"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="11"/>
+      <c r="A241" s="13"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="11"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="11"/>
+      <c r="A243" s="13"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="11"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="11"/>
+      <c r="A245" s="13"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="11"/>
+      <c r="A246" s="13"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="11"/>
+      <c r="A247" s="13"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="11"/>
+      <c r="A248" s="13"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="11"/>
+      <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="11"/>
+      <c r="A250" s="13"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="11"/>
+      <c r="A251" s="13"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="11"/>
+      <c r="A252" s="13"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="11"/>
+      <c r="A253" s="13"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="11"/>
+      <c r="A254" s="13"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="11"/>
+      <c r="A255" s="13"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="11"/>
+      <c r="A256" s="13"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="11"/>
+      <c r="A257" s="13"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="11"/>
+      <c r="A258" s="13"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="11"/>
+      <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="11"/>
+      <c r="A260" s="13"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="11"/>
+      <c r="A261" s="13"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="11"/>
+      <c r="A262" s="13"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="11"/>
+      <c r="A263" s="13"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="11"/>
+      <c r="A264" s="13"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="11"/>
+      <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="11"/>
+      <c r="A266" s="13"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="11"/>
+      <c r="A267" s="13"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="11"/>
+      <c r="A268" s="13"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="11"/>
+      <c r="A269" s="13"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="11"/>
+      <c r="A270" s="13"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="11"/>
+      <c r="A271" s="13"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="11"/>
+      <c r="A272" s="13"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="11"/>
+      <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="11"/>
+      <c r="A274" s="13"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="11"/>
+      <c r="A275" s="13"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="11"/>
+      <c r="A276" s="13"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="11"/>
+      <c r="A277" s="13"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="11"/>
+      <c r="A278" s="13"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="11"/>
+      <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="11"/>
+      <c r="A280" s="13"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="11"/>
+      <c r="A281" s="13"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="11"/>
+      <c r="A282" s="13"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="11"/>
+      <c r="A283" s="13"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="11"/>
+      <c r="A284" s="13"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="11"/>
+      <c r="A285" s="13"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="11"/>
+      <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="11"/>
+      <c r="A287" s="13"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="11"/>
+      <c r="A288" s="13"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="11"/>
+      <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="11"/>
+      <c r="A290" s="13"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="11"/>
+      <c r="A291" s="13"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="11"/>
+      <c r="A292" s="13"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="11"/>
+      <c r="A293" s="13"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="11"/>
+      <c r="A294" s="13"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="11"/>
+      <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="11"/>
+      <c r="A296" s="13"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="11"/>
+      <c r="A297" s="13"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="11"/>
+      <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="11"/>
+      <c r="A299" s="13"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="11"/>
+      <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="11"/>
+      <c r="A301" s="13"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="11"/>
+      <c r="A302" s="13"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="11"/>
+      <c r="A303" s="13"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="11"/>
+      <c r="A304" s="13"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="11"/>
+      <c r="A305" s="13"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="11"/>
+      <c r="A306" s="13"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="11"/>
+      <c r="A307" s="13"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="11"/>
+      <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="11"/>
+      <c r="A309" s="13"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="11"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="11"/>
+      <c r="A311" s="13"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="11"/>
+      <c r="A312" s="13"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="11"/>
+      <c r="A313" s="13"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="11"/>
+      <c r="A314" s="13"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="11"/>
+      <c r="A315" s="13"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="11"/>
+      <c r="A316" s="13"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="11"/>
+      <c r="A317" s="13"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="11"/>
+      <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="11"/>
+      <c r="A319" s="13"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="11"/>
+      <c r="A320" s="13"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="11"/>
+      <c r="A321" s="13"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="11"/>
+      <c r="A322" s="13"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="11"/>
+      <c r="A323" s="13"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="11"/>
+      <c r="A324" s="13"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="11"/>
+      <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="11"/>
+      <c r="A326" s="13"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="11"/>
+      <c r="A327" s="13"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="11"/>
+      <c r="A328" s="13"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="11"/>
+      <c r="A329" s="13"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="11"/>
+      <c r="A330" s="13"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="11"/>
+      <c r="A331" s="13"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="11"/>
+      <c r="A332" s="13"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="11"/>
+      <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="11"/>
+      <c r="A334" s="13"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="11"/>
+      <c r="A335" s="13"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="11"/>
+      <c r="A336" s="13"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="11"/>
+      <c r="A337" s="13"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="11"/>
+      <c r="A338" s="13"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="11"/>
+      <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="11"/>
+      <c r="A340" s="13"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="11"/>
+      <c r="A341" s="13"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="11"/>
+      <c r="A342" s="13"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="11"/>
+      <c r="A343" s="13"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="11"/>
+      <c r="A344" s="13"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="11"/>
+      <c r="A345" s="13"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="11"/>
+      <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="11"/>
+      <c r="A347" s="13"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="11"/>
+      <c r="A348" s="13"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="11"/>
+      <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="11"/>
+      <c r="A350" s="13"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="11"/>
+      <c r="A351" s="13"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="11"/>
+      <c r="A352" s="13"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="11"/>
+      <c r="A353" s="13"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="11"/>
+      <c r="A354" s="13"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="11"/>
+      <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="11"/>
+      <c r="A356" s="13"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="11"/>
+      <c r="A357" s="13"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="11"/>
+      <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="11"/>
+      <c r="A359" s="13"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="11"/>
+      <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="11"/>
+      <c r="A361" s="13"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="11"/>
+      <c r="A362" s="13"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="11"/>
+      <c r="A363" s="13"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="11"/>
+      <c r="A364" s="13"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="11"/>
+      <c r="A365" s="13"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="11"/>
+      <c r="A366" s="13"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="11"/>
+      <c r="A367" s="13"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="11"/>
+      <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="11"/>
+      <c r="A369" s="13"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="11"/>
+      <c r="A370" s="13"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="11"/>
+      <c r="A371" s="13"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="11"/>
+      <c r="A372" s="13"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="11"/>
+      <c r="A373" s="13"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="11"/>
+      <c r="A374" s="13"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="11"/>
+      <c r="A375" s="13"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="11"/>
+      <c r="A376" s="13"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="11"/>
+      <c r="A377" s="13"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="11"/>
+      <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="11"/>
+      <c r="A379" s="13"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="11"/>
+      <c r="A380" s="13"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="11"/>
+      <c r="A381" s="13"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="11"/>
+      <c r="A382" s="13"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="11"/>
+      <c r="A383" s="13"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="11"/>
+      <c r="A384" s="13"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="11"/>
+      <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="11"/>
+      <c r="A386" s="13"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="11"/>
+      <c r="A387" s="13"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="11"/>
+      <c r="A388" s="13"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="11"/>
+      <c r="A389" s="13"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="11"/>
+      <c r="A390" s="13"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="11"/>
+      <c r="A391" s="13"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="11"/>
+      <c r="A392" s="13"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="11"/>
+      <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="11"/>
+      <c r="A394" s="13"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="11"/>
+      <c r="A395" s="13"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="11"/>
+      <c r="A396" s="13"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="11"/>
+      <c r="A397" s="13"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="11"/>
+      <c r="A398" s="13"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="11"/>
+      <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="11"/>
+      <c r="A400" s="13"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="11"/>
+      <c r="A401" s="13"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="11"/>
+      <c r="A402" s="13"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="11"/>
+      <c r="A403" s="13"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="11"/>
+      <c r="A404" s="13"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="11"/>
+      <c r="A405" s="13"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="11"/>
+      <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="11"/>
+      <c r="A407" s="13"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="11"/>
+      <c r="A408" s="13"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="11"/>
+      <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="11"/>
+      <c r="A410" s="13"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="11"/>
+      <c r="A411" s="13"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="11"/>
+      <c r="A412" s="13"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="11"/>
+      <c r="A413" s="13"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="11"/>
+      <c r="A414" s="13"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="11"/>
+      <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="11"/>
+      <c r="A416" s="13"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="11"/>
+      <c r="A417" s="13"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="11"/>
+      <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="11"/>
+      <c r="A419" s="13"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="11"/>
+      <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="11"/>
+      <c r="A421" s="13"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="11"/>
+      <c r="A422" s="13"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="11"/>
+      <c r="A423" s="13"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="11"/>
+      <c r="A424" s="13"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="11"/>
+      <c r="A425" s="13"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="11"/>
+      <c r="A426" s="13"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="11"/>
+      <c r="A427" s="13"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="11"/>
+      <c r="A428" s="13"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="11"/>
+      <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="11"/>
+      <c r="A430" s="13"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="11"/>
+      <c r="A431" s="13"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="11"/>
+      <c r="A432" s="13"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="11"/>
+      <c r="A433" s="13"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="11"/>
+      <c r="A434" s="13"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="11"/>
+      <c r="A435" s="13"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="11"/>
+      <c r="A436" s="13"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="11"/>
+      <c r="A437" s="13"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="11"/>
+      <c r="A438" s="13"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="11"/>
+      <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="11"/>
+      <c r="A440" s="13"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="11"/>
+      <c r="A441" s="13"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="11"/>
+      <c r="A442" s="13"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="11"/>
+      <c r="A443" s="13"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="11"/>
+      <c r="A444" s="13"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="11"/>
+      <c r="A445" s="13"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="11"/>
+      <c r="A446" s="13"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="11"/>
+      <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="11"/>
+      <c r="A448" s="13"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="11"/>
+      <c r="A449" s="13"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="11"/>
+      <c r="A450" s="13"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="11"/>
+      <c r="A451" s="13"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="11"/>
+      <c r="A452" s="13"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="11"/>
+      <c r="A453" s="13"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="11"/>
+      <c r="A454" s="13"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="11"/>
+      <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="11"/>
+      <c r="A456" s="13"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="11"/>
+      <c r="A457" s="13"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="11"/>
+      <c r="A458" s="13"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="11"/>
+      <c r="A459" s="13"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="11"/>
+      <c r="A460" s="13"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="11"/>
+      <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="11"/>
+      <c r="A462" s="13"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="11"/>
+      <c r="A463" s="13"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="11"/>
+      <c r="A464" s="13"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="11"/>
+      <c r="A465" s="13"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="11"/>
+      <c r="A466" s="13"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="11"/>
+      <c r="A467" s="13"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="11"/>
+      <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="11"/>
+      <c r="A469" s="13"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="11"/>
+      <c r="A470" s="13"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="11"/>
+      <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="11"/>
+      <c r="A472" s="13"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="11"/>
+      <c r="A473" s="13"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="11"/>
+      <c r="A474" s="13"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="11"/>
+      <c r="A475" s="13"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="11"/>
+      <c r="A476" s="13"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="11"/>
+      <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="11"/>
+      <c r="A478" s="13"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="11"/>
+      <c r="A479" s="13"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="11"/>
+      <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="11"/>
+      <c r="A481" s="13"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="11"/>
+      <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="11"/>
+      <c r="A483" s="13"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="11"/>
+      <c r="A484" s="13"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="11"/>
+      <c r="A485" s="13"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="11"/>
+      <c r="A486" s="13"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="11"/>
+      <c r="A487" s="13"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="11"/>
+      <c r="A488" s="13"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="11"/>
+      <c r="A489" s="13"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="11"/>
+      <c r="A490" s="13"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="11"/>
+      <c r="A491" s="13"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="11"/>
+      <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="11"/>
+      <c r="A493" s="13"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="11"/>
+      <c r="A494" s="13"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="11"/>
+      <c r="A495" s="13"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="11"/>
+      <c r="A496" s="13"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="11"/>
+      <c r="A497" s="13"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="11"/>
+      <c r="A498" s="13"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="11"/>
+      <c r="A499" s="13"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="11"/>
+      <c r="A500" s="13"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="11"/>
+      <c r="A501" s="13"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="11"/>
+      <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="11"/>
+      <c r="A503" s="13"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="11"/>
+      <c r="A504" s="13"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="11"/>
+      <c r="A505" s="13"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="11"/>
+      <c r="A506" s="13"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="11"/>
+      <c r="A507" s="13"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="11"/>
+      <c r="A508" s="13"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="11"/>
+      <c r="A509" s="13"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="11"/>
+      <c r="A510" s="13"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="11"/>
+      <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="11"/>
+      <c r="A512" s="13"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="11"/>
+      <c r="A513" s="13"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="11"/>
+      <c r="A514" s="13"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="11"/>
+      <c r="A515" s="13"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="11"/>
+      <c r="A516" s="13"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="11"/>
+      <c r="A517" s="13"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="11"/>
+      <c r="A518" s="13"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="11"/>
+      <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="11"/>
+      <c r="A520" s="13"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="11"/>
+      <c r="A521" s="13"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="11"/>
+      <c r="A522" s="13"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="11"/>
+      <c r="A523" s="13"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="11"/>
+      <c r="A524" s="13"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="11"/>
+      <c r="A525" s="13"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="11"/>
+      <c r="A526" s="13"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="11"/>
+      <c r="A527" s="13"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="11"/>
+      <c r="A528" s="13"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="11"/>
+      <c r="A529" s="13"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="11"/>
+      <c r="A530" s="13"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="11"/>
+      <c r="A531" s="13"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="11"/>
+      <c r="A532" s="13"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="11"/>
+      <c r="A533" s="13"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="11"/>
+      <c r="A534" s="13"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="11"/>
+      <c r="A535" s="13"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="11"/>
+      <c r="A536" s="13"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="11"/>
+      <c r="A537" s="13"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="11"/>
+      <c r="A538" s="13"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="11"/>
+      <c r="A539" s="13"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="11"/>
+      <c r="A540" s="13"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="11"/>
+      <c r="A541" s="13"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="11"/>
+      <c r="A542" s="13"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="11"/>
+      <c r="A543" s="13"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="11"/>
+      <c r="A544" s="13"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="11"/>
+      <c r="A545" s="13"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="11"/>
+      <c r="A546" s="13"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="11"/>
+      <c r="A547" s="13"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="11"/>
+      <c r="A548" s="13"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="11"/>
+      <c r="A549" s="13"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="11"/>
+      <c r="A550" s="13"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="11"/>
+      <c r="A551" s="13"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="11"/>
+      <c r="A552" s="13"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="11"/>
+      <c r="A553" s="13"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="11"/>
+      <c r="A554" s="13"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="11"/>
+      <c r="A555" s="13"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="11"/>
+      <c r="A556" s="13"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="11"/>
+      <c r="A557" s="13"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="11"/>
+      <c r="A558" s="13"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="11"/>
+      <c r="A559" s="13"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="11"/>
+      <c r="A560" s="13"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="11"/>
+      <c r="A561" s="13"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="11"/>
+      <c r="A562" s="13"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="11"/>
+      <c r="A563" s="13"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="11"/>
+      <c r="A564" s="13"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="11"/>
+      <c r="A565" s="13"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="11"/>
+      <c r="A566" s="13"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="11"/>
+      <c r="A567" s="13"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="11"/>
+      <c r="A568" s="13"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="11"/>
+      <c r="A569" s="13"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="11"/>
+      <c r="A570" s="13"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="11"/>
+      <c r="A571" s="13"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="11"/>
+      <c r="A572" s="13"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="11"/>
+      <c r="A573" s="13"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="11"/>
+      <c r="A574" s="13"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="11"/>
+      <c r="A575" s="13"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="11"/>
+      <c r="A576" s="13"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="11"/>
+      <c r="A577" s="13"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="11"/>
+      <c r="A578" s="13"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="11"/>
+      <c r="A579" s="13"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="11"/>
+      <c r="A580" s="13"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="11"/>
+      <c r="A581" s="13"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="11"/>
+      <c r="A582" s="13"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="11"/>
+      <c r="A583" s="13"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="11"/>
+      <c r="A584" s="13"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="11"/>
+      <c r="A585" s="13"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="11"/>
+      <c r="A586" s="13"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="11"/>
+      <c r="A587" s="13"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="11"/>
+      <c r="A588" s="13"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="11"/>
+      <c r="A589" s="13"/>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="11"/>
+      <c r="A590" s="13"/>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="11"/>
+      <c r="A591" s="13"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="11"/>
+      <c r="A592" s="13"/>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="11"/>
+      <c r="A593" s="13"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="11"/>
+      <c r="A594" s="13"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="11"/>
+      <c r="A595" s="13"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="11"/>
+      <c r="A596" s="13"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="11"/>
+      <c r="A597" s="13"/>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="11"/>
+      <c r="A598" s="13"/>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="11"/>
+      <c r="A599" s="13"/>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="11"/>
+      <c r="A600" s="13"/>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="11"/>
+      <c r="A601" s="13"/>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="11"/>
+      <c r="A602" s="13"/>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="11"/>
+      <c r="A603" s="13"/>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="11"/>
+      <c r="A604" s="13"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="11"/>
+      <c r="A605" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4287,8 +4656,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4300,13 +4669,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4317,7 +4686,7 @@
         <v>43009</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4328,7 +4697,7 @@
         <v>43010</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4339,7 +4708,7 @@
         <v>43011</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4350,7 +4719,7 @@
         <v>43012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4361,7 +4730,7 @@
         <v>43013</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4372,7 +4741,7 @@
         <v>43014</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4383,128 +4752,134 @@
         <v>43015</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6">
+        <v>43030</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-梁肖雄.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-梁肖雄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8955" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -290,10 +290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="30">
@@ -352,13 +352,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -367,7 +360,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,10 +381,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -402,6 +397,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -409,16 +412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,15 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,39 +460,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,19 +570,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,61 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,6 +1045,80 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1066,82 +1140,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,10 +1151,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,138 +1163,138 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
@@ -1302,7 +1302,7 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,9 +1312,6 @@
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1865,440 +1862,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="25"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36">
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63" t="e">
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="63">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="64">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="66" t="e">
+      <c r="N3" s="65" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="42">
+      <c r="G4" s="41"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="63" t="e">
+      <c r="J4" s="66"/>
+      <c r="K4" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="64">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="66" t="e">
+      <c r="N4" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="42">
+      <c r="G5" s="41"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="63" t="e">
+      <c r="J5" s="66"/>
+      <c r="K5" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="65">
+      <c r="M5" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="66" t="e">
+      <c r="N5" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="42">
+      <c r="G6" s="41"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="63" t="e">
+      <c r="J6" s="66"/>
+      <c r="K6" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="66" t="e">
+      <c r="N6" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="42">
+      <c r="G7" s="41"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="63" t="e">
+      <c r="J7" s="66"/>
+      <c r="K7" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="66" t="e">
+      <c r="N7" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="42">
+      <c r="G8" s="41"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="63" t="e">
+      <c r="J8" s="66"/>
+      <c r="K8" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="66" t="e">
+      <c r="N8" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="42">
+      <c r="G9" s="41"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="63" t="e">
+      <c r="J9" s="66"/>
+      <c r="K9" s="62" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="64">
+      <c r="L9" s="63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="64">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="66" t="e">
+      <c r="N9" s="65" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="43" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46">
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="47">
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="69" t="e">
+      <c r="J10" s="67"/>
+      <c r="K10" s="68" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="72" t="e">
+      <c r="N10" s="71" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="51">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="51">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="73" t="e">
+      <c r="K11" s="72" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="74" t="e">
+      <c r="N11" s="73" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2316,13 +2313,13 @@
   <sheetPr/>
   <dimension ref="A1:O605"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" style="7" customWidth="1"/>
     <col min="2" max="3" width="10.6666666666667" style="4" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="6" width="13.8333333333333" style="4" customWidth="1"/>
@@ -2333,62 +2330,62 @@
     <col min="11" max="11" width="16.6666666666667" style="4" customWidth="1"/>
     <col min="12" max="14" width="13.8333333333333" style="4" customWidth="1"/>
     <col min="15" max="15" width="9" style="4"/>
-    <col min="16" max="16" width="9" style="9"/>
-    <col min="17" max="16384" width="9" style="10"/>
+    <col min="16" max="16" width="9" style="8"/>
+    <col min="17" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>42</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>43025</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2432,28 +2429,28 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>42</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>43025</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>76095261</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2479,10 +2476,10 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>42</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>43025</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2497,10 +2494,10 @@
       <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>76096885</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2526,10 +2523,10 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>42</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>43025</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2538,16 +2535,16 @@
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>76096583</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>57</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -2573,10 +2570,10 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>42</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>43025</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2620,16 +2617,16 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>44</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>43033</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2638,10 +2635,10 @@
       <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>76101629</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -2659,7 +2656,7 @@
       <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <v>15305247808</v>
       </c>
       <c r="O7" s="4" t="s">
@@ -2667,10 +2664,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>44</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>43033</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2688,7 +2685,7 @@
       <c r="G8" s="4">
         <v>76102133</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>68</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -2714,10 +2711,10 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>44</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>43033</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2761,10 +2758,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13">
-        <v>45</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="A10" s="12">
+        <v>44</v>
+      </c>
+      <c r="B10" s="19">
         <v>43038</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2808,10 +2805,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="13">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20">
+      <c r="A11" s="12">
+        <v>44</v>
+      </c>
+      <c r="B11" s="19">
         <v>43038</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2855,1786 +2852,1786 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="13"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="13"/>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="13"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="13"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="13"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="13"/>
+      <c r="A59" s="12"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="13"/>
+      <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="13"/>
+      <c r="A61" s="12"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="13"/>
+      <c r="A62" s="12"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="13"/>
+      <c r="A64" s="12"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="13"/>
+      <c r="A65" s="12"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="13"/>
+      <c r="A66" s="12"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="13"/>
+      <c r="A67" s="12"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="13"/>
+      <c r="A68" s="12"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="13"/>
+      <c r="A69" s="12"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="13"/>
+      <c r="A70" s="12"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="13"/>
+      <c r="A71" s="12"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="13"/>
+      <c r="A77" s="12"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="13"/>
+      <c r="A78" s="12"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="13"/>
+      <c r="A79" s="12"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="13"/>
+      <c r="A80" s="12"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="13"/>
+      <c r="A81" s="12"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="13"/>
+      <c r="A82" s="12"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="13"/>
+      <c r="A83" s="12"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="13"/>
+      <c r="A84" s="12"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="13"/>
+      <c r="A85" s="12"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="13"/>
+      <c r="A87" s="12"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="13"/>
+      <c r="A88" s="12"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="13"/>
+      <c r="A89" s="12"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="13"/>
+      <c r="A90" s="12"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="13"/>
+      <c r="A91" s="12"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="13"/>
+      <c r="A92" s="12"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="13"/>
+      <c r="A93" s="12"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="13"/>
+      <c r="A94" s="12"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="13"/>
+      <c r="A95" s="12"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="13"/>
+      <c r="A96" s="12"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="13"/>
+      <c r="A97" s="12"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="13"/>
+      <c r="A98" s="12"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="13"/>
+      <c r="A99" s="12"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="13"/>
+      <c r="A100" s="12"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="13"/>
+      <c r="A101" s="12"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="13"/>
+      <c r="A102" s="12"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="13"/>
+      <c r="A103" s="12"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="13"/>
+      <c r="A104" s="12"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="13"/>
+      <c r="A105" s="12"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="13"/>
+      <c r="A106" s="12"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="13"/>
+      <c r="A107" s="12"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="13"/>
+      <c r="A108" s="12"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="13"/>
+      <c r="A109" s="12"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="13"/>
+      <c r="A110" s="12"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="13"/>
+      <c r="A111" s="12"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="13"/>
+      <c r="A112" s="12"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="13"/>
+      <c r="A113" s="12"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="13"/>
+      <c r="A114" s="12"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="13"/>
+      <c r="A115" s="12"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="13"/>
+      <c r="A116" s="12"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="13"/>
+      <c r="A117" s="12"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="13"/>
+      <c r="A118" s="12"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="12"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="12"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="13"/>
+      <c r="A121" s="12"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="13"/>
+      <c r="A122" s="12"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="13"/>
+      <c r="A123" s="12"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="13"/>
+      <c r="A124" s="12"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="13"/>
+      <c r="A125" s="12"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="13"/>
+      <c r="A126" s="12"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="12"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="13"/>
+      <c r="A128" s="12"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="13"/>
+      <c r="A129" s="12"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="13"/>
+      <c r="A130" s="12"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="13"/>
+      <c r="A131" s="12"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="13"/>
+      <c r="A132" s="12"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="13"/>
+      <c r="A133" s="12"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="13"/>
+      <c r="A134" s="12"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="13"/>
+      <c r="A135" s="12"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="13"/>
+      <c r="A136" s="12"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="13"/>
+      <c r="A137" s="12"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="13"/>
+      <c r="A138" s="12"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="13"/>
+      <c r="A139" s="12"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="13"/>
+      <c r="A140" s="12"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="13"/>
+      <c r="A141" s="12"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="13"/>
+      <c r="A142" s="12"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="13"/>
+      <c r="A143" s="12"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="13"/>
+      <c r="A144" s="12"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="13"/>
+      <c r="A145" s="12"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="13"/>
+      <c r="A146" s="12"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="13"/>
+      <c r="A147" s="12"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="13"/>
+      <c r="A148" s="12"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="13"/>
+      <c r="A149" s="12"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="13"/>
+      <c r="A150" s="12"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="13"/>
+      <c r="A151" s="12"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="13"/>
+      <c r="A152" s="12"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="13"/>
+      <c r="A153" s="12"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="13"/>
+      <c r="A154" s="12"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="13"/>
+      <c r="A155" s="12"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="13"/>
+      <c r="A156" s="12"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="13"/>
+      <c r="A157" s="12"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="13"/>
+      <c r="A158" s="12"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="13"/>
+      <c r="A159" s="12"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="13"/>
+      <c r="A160" s="12"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="13"/>
+      <c r="A161" s="12"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="13"/>
+      <c r="A162" s="12"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="13"/>
+      <c r="A163" s="12"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="13"/>
+      <c r="A164" s="12"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="13"/>
+      <c r="A165" s="12"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="13"/>
+      <c r="A166" s="12"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="13"/>
+      <c r="A167" s="12"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="13"/>
+      <c r="A168" s="12"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="13"/>
+      <c r="A169" s="12"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="13"/>
+      <c r="A170" s="12"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="13"/>
+      <c r="A171" s="12"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="13"/>
+      <c r="A172" s="12"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="13"/>
+      <c r="A173" s="12"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="13"/>
+      <c r="A174" s="12"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="13"/>
+      <c r="A175" s="12"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="13"/>
+      <c r="A176" s="12"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="13"/>
+      <c r="A177" s="12"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="13"/>
+      <c r="A178" s="12"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="13"/>
+      <c r="A179" s="12"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="13"/>
+      <c r="A180" s="12"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="13"/>
+      <c r="A181" s="12"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="13"/>
+      <c r="A182" s="12"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="13"/>
+      <c r="A183" s="12"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="13"/>
+      <c r="A184" s="12"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="13"/>
+      <c r="A185" s="12"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="13"/>
+      <c r="A186" s="12"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="13"/>
+      <c r="A187" s="12"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="13"/>
+      <c r="A188" s="12"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="13"/>
+      <c r="A189" s="12"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="13"/>
+      <c r="A190" s="12"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="13"/>
+      <c r="A191" s="12"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="13"/>
+      <c r="A192" s="12"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="13"/>
+      <c r="A193" s="12"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="13"/>
+      <c r="A194" s="12"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="13"/>
+      <c r="A195" s="12"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="13"/>
+      <c r="A196" s="12"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="13"/>
+      <c r="A197" s="12"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="13"/>
+      <c r="A198" s="12"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="13"/>
+      <c r="A199" s="12"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="13"/>
+      <c r="A200" s="12"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="13"/>
+      <c r="A201" s="12"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="13"/>
+      <c r="A202" s="12"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="13"/>
+      <c r="A203" s="12"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="13"/>
+      <c r="A204" s="12"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="13"/>
+      <c r="A205" s="12"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="13"/>
+      <c r="A206" s="12"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="13"/>
+      <c r="A207" s="12"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="13"/>
+      <c r="A208" s="12"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="13"/>
+      <c r="A209" s="12"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="13"/>
+      <c r="A210" s="12"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="13"/>
+      <c r="A211" s="12"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="13"/>
+      <c r="A212" s="12"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="13"/>
+      <c r="A213" s="12"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="13"/>
+      <c r="A214" s="12"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="13"/>
+      <c r="A215" s="12"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="13"/>
+      <c r="A216" s="12"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="13"/>
+      <c r="A217" s="12"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="13"/>
+      <c r="A218" s="12"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="13"/>
+      <c r="A219" s="12"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="13"/>
+      <c r="A220" s="12"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="13"/>
+      <c r="A221" s="12"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="13"/>
+      <c r="A222" s="12"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="13"/>
+      <c r="A223" s="12"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="13"/>
+      <c r="A224" s="12"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="13"/>
+      <c r="A225" s="12"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="13"/>
+      <c r="A226" s="12"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="13"/>
+      <c r="A227" s="12"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="13"/>
+      <c r="A228" s="12"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="13"/>
+      <c r="A229" s="12"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="13"/>
+      <c r="A230" s="12"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="13"/>
+      <c r="A231" s="12"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="13"/>
+      <c r="A232" s="12"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="13"/>
+      <c r="A233" s="12"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="13"/>
+      <c r="A234" s="12"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="13"/>
+      <c r="A235" s="12"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="13"/>
+      <c r="A236" s="12"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="13"/>
+      <c r="A237" s="12"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="13"/>
+      <c r="A238" s="12"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="13"/>
+      <c r="A239" s="12"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="13"/>
+      <c r="A240" s="12"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="13"/>
+      <c r="A241" s="12"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="13"/>
+      <c r="A242" s="12"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="13"/>
+      <c r="A243" s="12"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="13"/>
+      <c r="A244" s="12"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="13"/>
+      <c r="A245" s="12"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="13"/>
+      <c r="A246" s="12"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="13"/>
+      <c r="A247" s="12"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="13"/>
+      <c r="A248" s="12"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="13"/>
+      <c r="A249" s="12"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="13"/>
+      <c r="A250" s="12"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="13"/>
+      <c r="A251" s="12"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="13"/>
+      <c r="A252" s="12"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="13"/>
+      <c r="A253" s="12"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="13"/>
+      <c r="A254" s="12"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="13"/>
+      <c r="A255" s="12"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="13"/>
+      <c r="A256" s="12"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="13"/>
+      <c r="A257" s="12"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="13"/>
+      <c r="A258" s="12"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="13"/>
+      <c r="A259" s="12"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="13"/>
+      <c r="A260" s="12"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="13"/>
+      <c r="A261" s="12"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="13"/>
+      <c r="A262" s="12"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="13"/>
+      <c r="A263" s="12"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="13"/>
+      <c r="A264" s="12"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="13"/>
+      <c r="A265" s="12"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="13"/>
+      <c r="A266" s="12"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="13"/>
+      <c r="A267" s="12"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="13"/>
+      <c r="A268" s="12"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="13"/>
+      <c r="A269" s="12"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="13"/>
+      <c r="A270" s="12"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="13"/>
+      <c r="A271" s="12"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="13"/>
+      <c r="A272" s="12"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="13"/>
+      <c r="A273" s="12"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="13"/>
+      <c r="A274" s="12"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="13"/>
+      <c r="A275" s="12"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="13"/>
+      <c r="A276" s="12"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="13"/>
+      <c r="A277" s="12"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="13"/>
+      <c r="A278" s="12"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="13"/>
+      <c r="A279" s="12"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="13"/>
+      <c r="A280" s="12"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="13"/>
+      <c r="A281" s="12"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="13"/>
+      <c r="A282" s="12"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="13"/>
+      <c r="A283" s="12"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="13"/>
+      <c r="A284" s="12"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="13"/>
+      <c r="A285" s="12"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="13"/>
+      <c r="A286" s="12"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="13"/>
+      <c r="A287" s="12"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="13"/>
+      <c r="A288" s="12"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="13"/>
+      <c r="A289" s="12"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="13"/>
+      <c r="A290" s="12"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="13"/>
+      <c r="A291" s="12"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="13"/>
+      <c r="A292" s="12"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="13"/>
+      <c r="A293" s="12"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="13"/>
+      <c r="A294" s="12"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="13"/>
+      <c r="A295" s="12"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="13"/>
+      <c r="A296" s="12"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="13"/>
+      <c r="A297" s="12"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="13"/>
+      <c r="A298" s="12"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="13"/>
+      <c r="A299" s="12"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="13"/>
+      <c r="A300" s="12"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="13"/>
+      <c r="A301" s="12"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="13"/>
+      <c r="A302" s="12"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="13"/>
+      <c r="A303" s="12"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="13"/>
+      <c r="A304" s="12"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="13"/>
+      <c r="A305" s="12"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="13"/>
+      <c r="A306" s="12"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="13"/>
+      <c r="A307" s="12"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="13"/>
+      <c r="A308" s="12"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="13"/>
+      <c r="A309" s="12"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="13"/>
+      <c r="A310" s="12"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="13"/>
+      <c r="A311" s="12"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="13"/>
+      <c r="A312" s="12"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="13"/>
+      <c r="A313" s="12"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="13"/>
+      <c r="A314" s="12"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="13"/>
+      <c r="A315" s="12"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="13"/>
+      <c r="A316" s="12"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="13"/>
+      <c r="A317" s="12"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="13"/>
+      <c r="A318" s="12"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="13"/>
+      <c r="A319" s="12"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="13"/>
+      <c r="A320" s="12"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="13"/>
+      <c r="A321" s="12"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="13"/>
+      <c r="A322" s="12"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="13"/>
+      <c r="A323" s="12"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="13"/>
+      <c r="A324" s="12"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="13"/>
+      <c r="A325" s="12"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="13"/>
+      <c r="A326" s="12"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="13"/>
+      <c r="A327" s="12"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="13"/>
+      <c r="A328" s="12"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="13"/>
+      <c r="A329" s="12"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="13"/>
+      <c r="A330" s="12"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="13"/>
+      <c r="A331" s="12"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="13"/>
+      <c r="A332" s="12"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="13"/>
+      <c r="A333" s="12"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="13"/>
+      <c r="A334" s="12"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="13"/>
+      <c r="A335" s="12"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="13"/>
+      <c r="A336" s="12"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="13"/>
+      <c r="A337" s="12"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="13"/>
+      <c r="A338" s="12"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="13"/>
+      <c r="A339" s="12"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="13"/>
+      <c r="A340" s="12"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="13"/>
+      <c r="A341" s="12"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="13"/>
+      <c r="A342" s="12"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="13"/>
+      <c r="A343" s="12"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="13"/>
+      <c r="A344" s="12"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="13"/>
+      <c r="A345" s="12"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="13"/>
+      <c r="A346" s="12"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="13"/>
+      <c r="A347" s="12"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="13"/>
+      <c r="A348" s="12"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="13"/>
+      <c r="A349" s="12"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="13"/>
+      <c r="A350" s="12"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="13"/>
+      <c r="A351" s="12"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="13"/>
+      <c r="A352" s="12"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="13"/>
+      <c r="A353" s="12"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="13"/>
+      <c r="A354" s="12"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="13"/>
+      <c r="A355" s="12"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="13"/>
+      <c r="A356" s="12"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="13"/>
+      <c r="A357" s="12"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="13"/>
+      <c r="A358" s="12"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="13"/>
+      <c r="A359" s="12"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="13"/>
+      <c r="A360" s="12"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="13"/>
+      <c r="A361" s="12"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="13"/>
+      <c r="A362" s="12"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="13"/>
+      <c r="A363" s="12"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="13"/>
+      <c r="A364" s="12"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="13"/>
+      <c r="A365" s="12"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="13"/>
+      <c r="A366" s="12"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="13"/>
+      <c r="A367" s="12"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="13"/>
+      <c r="A368" s="12"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="13"/>
+      <c r="A369" s="12"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="13"/>
+      <c r="A370" s="12"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="13"/>
+      <c r="A371" s="12"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="13"/>
+      <c r="A372" s="12"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="13"/>
+      <c r="A373" s="12"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="13"/>
+      <c r="A374" s="12"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="13"/>
+      <c r="A375" s="12"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="13"/>
+      <c r="A376" s="12"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="13"/>
+      <c r="A377" s="12"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="13"/>
+      <c r="A378" s="12"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="13"/>
+      <c r="A379" s="12"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="13"/>
+      <c r="A380" s="12"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="13"/>
+      <c r="A381" s="12"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="13"/>
+      <c r="A382" s="12"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="13"/>
+      <c r="A383" s="12"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="13"/>
+      <c r="A384" s="12"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="13"/>
+      <c r="A385" s="12"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="13"/>
+      <c r="A386" s="12"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="13"/>
+      <c r="A387" s="12"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="13"/>
+      <c r="A388" s="12"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="13"/>
+      <c r="A389" s="12"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="13"/>
+      <c r="A390" s="12"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="13"/>
+      <c r="A391" s="12"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="13"/>
+      <c r="A392" s="12"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="13"/>
+      <c r="A393" s="12"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="13"/>
+      <c r="A394" s="12"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="13"/>
+      <c r="A395" s="12"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="13"/>
+      <c r="A396" s="12"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="13"/>
+      <c r="A397" s="12"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="13"/>
+      <c r="A398" s="12"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="13"/>
+      <c r="A399" s="12"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="13"/>
+      <c r="A400" s="12"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="13"/>
+      <c r="A401" s="12"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="13"/>
+      <c r="A402" s="12"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="13"/>
+      <c r="A403" s="12"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="13"/>
+      <c r="A404" s="12"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="13"/>
+      <c r="A405" s="12"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="13"/>
+      <c r="A406" s="12"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="13"/>
+      <c r="A407" s="12"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="13"/>
+      <c r="A408" s="12"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="13"/>
+      <c r="A409" s="12"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="13"/>
+      <c r="A410" s="12"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="13"/>
+      <c r="A411" s="12"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="13"/>
+      <c r="A412" s="12"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="13"/>
+      <c r="A413" s="12"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="13"/>
+      <c r="A414" s="12"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="13"/>
+      <c r="A415" s="12"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="13"/>
+      <c r="A416" s="12"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="13"/>
+      <c r="A417" s="12"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="13"/>
+      <c r="A418" s="12"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="13"/>
+      <c r="A419" s="12"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="13"/>
+      <c r="A420" s="12"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="13"/>
+      <c r="A421" s="12"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="13"/>
+      <c r="A422" s="12"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="13"/>
+      <c r="A423" s="12"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="13"/>
+      <c r="A424" s="12"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="13"/>
+      <c r="A425" s="12"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="13"/>
+      <c r="A426" s="12"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="13"/>
+      <c r="A427" s="12"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="13"/>
+      <c r="A428" s="12"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="13"/>
+      <c r="A429" s="12"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="13"/>
+      <c r="A430" s="12"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="13"/>
+      <c r="A431" s="12"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="13"/>
+      <c r="A432" s="12"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="13"/>
+      <c r="A433" s="12"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="13"/>
+      <c r="A434" s="12"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="13"/>
+      <c r="A435" s="12"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="13"/>
+      <c r="A436" s="12"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="13"/>
+      <c r="A437" s="12"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="13"/>
+      <c r="A438" s="12"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="13"/>
+      <c r="A439" s="12"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="13"/>
+      <c r="A440" s="12"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="13"/>
+      <c r="A441" s="12"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="13"/>
+      <c r="A442" s="12"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="13"/>
+      <c r="A443" s="12"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="13"/>
+      <c r="A444" s="12"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="13"/>
+      <c r="A445" s="12"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="13"/>
+      <c r="A446" s="12"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="13"/>
+      <c r="A447" s="12"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="13"/>
+      <c r="A448" s="12"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="13"/>
+      <c r="A449" s="12"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="13"/>
+      <c r="A450" s="12"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="13"/>
+      <c r="A451" s="12"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="13"/>
+      <c r="A452" s="12"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="13"/>
+      <c r="A453" s="12"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="13"/>
+      <c r="A454" s="12"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="13"/>
+      <c r="A455" s="12"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="13"/>
+      <c r="A456" s="12"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="13"/>
+      <c r="A457" s="12"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="13"/>
+      <c r="A458" s="12"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="13"/>
+      <c r="A459" s="12"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="13"/>
+      <c r="A460" s="12"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="13"/>
+      <c r="A461" s="12"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="13"/>
+      <c r="A462" s="12"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="13"/>
+      <c r="A463" s="12"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="13"/>
+      <c r="A464" s="12"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="13"/>
+      <c r="A465" s="12"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="13"/>
+      <c r="A466" s="12"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="13"/>
+      <c r="A467" s="12"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="13"/>
+      <c r="A468" s="12"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="13"/>
+      <c r="A469" s="12"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="13"/>
+      <c r="A470" s="12"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="13"/>
+      <c r="A471" s="12"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="13"/>
+      <c r="A472" s="12"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="13"/>
+      <c r="A473" s="12"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="13"/>
+      <c r="A474" s="12"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="13"/>
+      <c r="A475" s="12"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="13"/>
+      <c r="A476" s="12"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="13"/>
+      <c r="A477" s="12"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="13"/>
+      <c r="A478" s="12"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="13"/>
+      <c r="A479" s="12"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="13"/>
+      <c r="A480" s="12"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="13"/>
+      <c r="A481" s="12"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="13"/>
+      <c r="A482" s="12"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="13"/>
+      <c r="A483" s="12"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="13"/>
+      <c r="A484" s="12"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="13"/>
+      <c r="A485" s="12"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="13"/>
+      <c r="A486" s="12"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="13"/>
+      <c r="A487" s="12"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="13"/>
+      <c r="A488" s="12"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="13"/>
+      <c r="A489" s="12"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="13"/>
+      <c r="A490" s="12"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="13"/>
+      <c r="A491" s="12"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="13"/>
+      <c r="A492" s="12"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="13"/>
+      <c r="A493" s="12"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="13"/>
+      <c r="A494" s="12"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="13"/>
+      <c r="A495" s="12"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="13"/>
+      <c r="A496" s="12"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="13"/>
+      <c r="A497" s="12"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="13"/>
+      <c r="A498" s="12"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="13"/>
+      <c r="A499" s="12"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="13"/>
+      <c r="A500" s="12"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="13"/>
+      <c r="A501" s="12"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="13"/>
+      <c r="A502" s="12"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="13"/>
+      <c r="A503" s="12"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="13"/>
+      <c r="A504" s="12"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="13"/>
+      <c r="A505" s="12"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="13"/>
+      <c r="A506" s="12"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="13"/>
+      <c r="A507" s="12"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="13"/>
+      <c r="A508" s="12"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="13"/>
+      <c r="A509" s="12"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="13"/>
+      <c r="A510" s="12"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="13"/>
+      <c r="A511" s="12"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="13"/>
+      <c r="A512" s="12"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="13"/>
+      <c r="A513" s="12"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="13"/>
+      <c r="A514" s="12"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="13"/>
+      <c r="A515" s="12"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="13"/>
+      <c r="A516" s="12"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="13"/>
+      <c r="A517" s="12"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="13"/>
+      <c r="A518" s="12"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="13"/>
+      <c r="A519" s="12"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="13"/>
+      <c r="A520" s="12"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="13"/>
+      <c r="A521" s="12"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="13"/>
+      <c r="A522" s="12"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="13"/>
+      <c r="A523" s="12"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="13"/>
+      <c r="A524" s="12"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="13"/>
+      <c r="A525" s="12"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="13"/>
+      <c r="A526" s="12"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="13"/>
+      <c r="A527" s="12"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="13"/>
+      <c r="A528" s="12"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="13"/>
+      <c r="A529" s="12"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="13"/>
+      <c r="A530" s="12"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="13"/>
+      <c r="A531" s="12"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="13"/>
+      <c r="A532" s="12"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="13"/>
+      <c r="A533" s="12"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="13"/>
+      <c r="A534" s="12"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="13"/>
+      <c r="A535" s="12"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="13"/>
+      <c r="A536" s="12"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="13"/>
+      <c r="A537" s="12"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="13"/>
+      <c r="A538" s="12"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="13"/>
+      <c r="A539" s="12"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="13"/>
+      <c r="A540" s="12"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="13"/>
+      <c r="A541" s="12"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="13"/>
+      <c r="A542" s="12"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="13"/>
+      <c r="A543" s="12"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="13"/>
+      <c r="A544" s="12"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="13"/>
+      <c r="A545" s="12"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="13"/>
+      <c r="A546" s="12"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="13"/>
+      <c r="A547" s="12"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="13"/>
+      <c r="A548" s="12"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="13"/>
+      <c r="A549" s="12"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="13"/>
+      <c r="A550" s="12"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="13"/>
+      <c r="A551" s="12"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="13"/>
+      <c r="A552" s="12"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="13"/>
+      <c r="A553" s="12"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="13"/>
+      <c r="A554" s="12"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="13"/>
+      <c r="A555" s="12"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="13"/>
+      <c r="A556" s="12"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="13"/>
+      <c r="A557" s="12"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="13"/>
+      <c r="A558" s="12"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="13"/>
+      <c r="A559" s="12"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="13"/>
+      <c r="A560" s="12"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="13"/>
+      <c r="A561" s="12"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="13"/>
+      <c r="A562" s="12"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="13"/>
+      <c r="A563" s="12"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="13"/>
+      <c r="A564" s="12"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="13"/>
+      <c r="A565" s="12"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="13"/>
+      <c r="A566" s="12"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="13"/>
+      <c r="A567" s="12"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="13"/>
+      <c r="A568" s="12"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="13"/>
+      <c r="A569" s="12"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="13"/>
+      <c r="A570" s="12"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="13"/>
+      <c r="A571" s="12"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="13"/>
+      <c r="A572" s="12"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="13"/>
+      <c r="A573" s="12"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="13"/>
+      <c r="A574" s="12"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="13"/>
+      <c r="A575" s="12"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="13"/>
+      <c r="A576" s="12"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="13"/>
+      <c r="A577" s="12"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="13"/>
+      <c r="A578" s="12"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="13"/>
+      <c r="A579" s="12"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="13"/>
+      <c r="A580" s="12"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="13"/>
+      <c r="A581" s="12"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="13"/>
+      <c r="A582" s="12"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="13"/>
+      <c r="A583" s="12"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="13"/>
+      <c r="A584" s="12"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="13"/>
+      <c r="A585" s="12"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="13"/>
+      <c r="A586" s="12"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="13"/>
+      <c r="A587" s="12"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="13"/>
+      <c r="A588" s="12"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="13"/>
+      <c r="A589" s="12"/>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="13"/>
+      <c r="A590" s="12"/>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="13"/>
+      <c r="A591" s="12"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="13"/>
+      <c r="A592" s="12"/>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="13"/>
+      <c r="A593" s="12"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="13"/>
+      <c r="A594" s="12"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="13"/>
+      <c r="A595" s="12"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="13"/>
+      <c r="A596" s="12"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="13"/>
+      <c r="A597" s="12"/>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="13"/>
+      <c r="A598" s="12"/>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="13"/>
+      <c r="A599" s="12"/>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="13"/>
+      <c r="A600" s="12"/>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="13"/>
+      <c r="A601" s="12"/>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="13"/>
+      <c r="A602" s="12"/>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="13"/>
+      <c r="A603" s="12"/>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="13"/>
+      <c r="A604" s="12"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="13"/>
+      <c r="A605" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4656,7 +4653,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4756,130 +4753,130 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>43030</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
